--- a/XuanSon/OpenStack/Install OpenStack/Pike/Install_OPS_with_Linuxbridge/images/IP-Planning-Hardware-Requirements.xlsx
+++ b/XuanSon/OpenStack/Install OpenStack/Pike/Install_OPS_with_Linuxbridge/images/IP-Planning-Hardware-Requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNPT\thuctap012017\XuanSon\OpenStack\Install OpenStack\Ocata\Install_OPS_with_Linuxbridge\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNPT\thuctap012017\XuanSon\OpenStack\Install OpenStack\Pike\Install_OPS_with_Linuxbridge\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,9 +98,6 @@
     <t>Compute</t>
   </si>
   <si>
-    <t>IP PLANNING dành cho LAB OpenStack - Ocata</t>
-  </si>
-  <si>
     <t>10.10.10.72</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>192.168.2.20</t>
+  </si>
+  <si>
+    <t>IP PLANNING dành cho LAB OpenStack - Pike</t>
   </si>
 </sst>
 </file>
@@ -427,16 +427,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -450,75 +519,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -803,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C6:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,40 +818,40 @@
   </cols>
   <sheetData>
     <row r="6" spans="3:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="C6" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="43"/>
+      <c r="C6" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="31"/>
     </row>
     <row r="7" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="40"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8" spans="3:15" ht="33" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
@@ -895,40 +895,40 @@
       </c>
     </row>
     <row r="9" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>28</v>
+      <c r="G9" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="21">
         <v>6</v>
       </c>
       <c r="J9" s="17">
         <v>2</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="19">
         <v>30</v>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
     </row>
     <row r="10" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="26"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
@@ -938,106 +938,106 @@
       <c r="F10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="45"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="28"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
     </row>
     <row r="11" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="44" t="s">
-        <v>28</v>
+      <c r="G11" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="21">
         <v>8</v>
       </c>
       <c r="J11" s="17">
         <v>4</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="19">
         <v>30</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C12" s="26"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="45"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="28"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="18"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
     </row>
     <row r="15" spans="3:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="3:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="C16" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="43"/>
+      <c r="C16" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="31"/>
     </row>
     <row r="17" spans="3:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="40"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="28"/>
     </row>
     <row r="18" spans="3:15" ht="33" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
@@ -1081,20 +1081,20 @@
       </c>
     </row>
     <row r="19" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C19" s="15" t="s">
-        <v>24</v>
+      <c r="C19" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="44" t="s">
-        <v>28</v>
+      <c r="G19" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>9</v>
@@ -1105,70 +1105,70 @@
       <c r="J19" s="17">
         <v>1</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="42">
         <v>30</v>
       </c>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
     </row>
     <row r="20" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C20" s="16"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="45"/>
+      <c r="G20" s="16"/>
       <c r="H20" s="13"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
     </row>
     <row r="21" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="44" t="s">
-        <v>28</v>
+      <c r="G21" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="37">
         <v>6</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="38">
         <v>2</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="39">
         <v>30</v>
       </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
     </row>
     <row r="22" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="11" t="s">
         <v>20</v>
       </c>
@@ -1178,78 +1178,96 @@
       <c r="F22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="45"/>
+      <c r="G22" s="16"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="28"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
     </row>
     <row r="23" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="32" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="44" t="s">
-        <v>28</v>
+      <c r="G23" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="21">
         <v>8</v>
       </c>
       <c r="J23" s="17">
         <v>4</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="19">
         <v>30</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
     </row>
     <row r="24" spans="3:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C24" s="26"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="45"/>
+      <c r="G24" s="16"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="28"/>
+      <c r="I24" s="22"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:O7"/>
     <mergeCell ref="C6:O6"/>
@@ -1266,30 +1284,12 @@
     <mergeCell ref="N9:N10"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="L9:L10"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="N21:N22"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
